--- a/Gantt chart 24_5_21.xlsx
+++ b/Gantt chart 24_5_21.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E012C8-1C18-4BD1-B092-62D0D23E63A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FEE337-94F7-4731-8306-50A32CBE3120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1515,8 +1515,8 @@
   <dimension ref="A1:BL45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2302,7 +2302,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="22">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E9" s="59">
         <f>Project_Start</f>
@@ -2466,7 +2466,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="22">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E11" s="59">
         <v>44320</v>
@@ -2545,7 +2545,7 @@
         <v>52</v>
       </c>
       <c r="D12" s="22">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="E12" s="59">
         <f>F11</f>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="79">
         <f>F22</f>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C24" s="76"/>
       <c r="D24" s="78">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E24" s="79">
         <f>F23</f>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="C36" s="65"/>
       <c r="D36" s="78">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E36" s="60">
         <v>44355</v>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="C37" s="65"/>
       <c r="D37" s="78">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E37" s="60">
         <f>F36</f>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C38" s="65"/>
       <c r="D38" s="78">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E38" s="60">
         <f>F37</f>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C39" s="65"/>
       <c r="D39" s="78">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E39" s="60">
         <f>F38</f>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C40" s="65"/>
       <c r="D40" s="78">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E40" s="60">
         <f t="shared" ref="E40" si="10">F39+1</f>

--- a/Gantt chart 24_5_21.xlsx
+++ b/Gantt chart 24_5_21.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FEE337-94F7-4731-8306-50A32CBE3120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EFA102-EF2B-411C-A297-1E9D84CC128D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,12 +12,12 @@
     <sheet name="About" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Display_Week">ProjectSchedule!$E$4</definedName>
+    <definedName name="Display_Week">ProjectSchedule!$F$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
-    <definedName name="Project_Start">ProjectSchedule!$E$3</definedName>
-    <definedName name="task_end" localSheetId="0">ProjectSchedule!$F1</definedName>
-    <definedName name="task_progress" localSheetId="0">ProjectSchedule!$D1</definedName>
-    <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
+    <definedName name="Project_Start">ProjectSchedule!$F$3</definedName>
+    <definedName name="task_end" localSheetId="0">ProjectSchedule!$G1</definedName>
+    <definedName name="task_progress" localSheetId="0">ProjectSchedule!$E1</definedName>
+    <definedName name="task_start" localSheetId="0">ProjectSchedule!$F1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>TASK</t>
-  </si>
-  <si>
-    <t>Phase 3 Title</t>
   </si>
   <si>
     <t>More Project Management Templates</t>
@@ -189,15 +186,6 @@
 Repeat the instructions from cells A8 and A9 whenever you need to.</t>
   </si>
   <si>
-    <t>Bikes R Us Website</t>
-  </si>
-  <si>
-    <t>Initial Project Planning</t>
-  </si>
-  <si>
-    <t>Stakeholder Registry</t>
-  </si>
-  <si>
     <t>Project Charter</t>
   </si>
   <si>
@@ -273,15 +261,6 @@
     <t>Site Map</t>
   </si>
   <si>
-    <t>Contact Us</t>
-  </si>
-  <si>
-    <t>About Us</t>
-  </si>
-  <si>
-    <t>Back End Development</t>
-  </si>
-  <si>
     <t>Test Launch</t>
   </si>
   <si>
@@ -304,6 +283,81 @@
   </si>
   <si>
     <t>Bonnie Joe</t>
+  </si>
+  <si>
+    <t>Phase 3 Launch &amp; Test</t>
+  </si>
+  <si>
+    <t>1. Bikes R Us Website</t>
+  </si>
+  <si>
+    <t>1.1 Initial Project Planning</t>
+  </si>
+  <si>
+    <t>1.1.1 Stakeholder Registry</t>
+  </si>
+  <si>
+    <t>WBS Code</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
+  </si>
+  <si>
+    <t>1.1.9</t>
+  </si>
+  <si>
+    <t>1.1.10</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>3.1.5</t>
+  </si>
+  <si>
+    <t>3.1.6</t>
+  </si>
+  <si>
+    <t>3.1.7</t>
+  </si>
+  <si>
+    <t>3.1.8</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>About US</t>
   </si>
 </sst>
 </file>
@@ -317,7 +371,7 @@
     <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="d"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +532,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -702,7 +762,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -927,6 +987,13 @@
     <xf numFmtId="165" fontId="9" fillId="11" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -939,13 +1006,24 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1512,443 +1590,446 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL45"/>
+  <dimension ref="A1:BM44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="51" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="2" max="2" width="12.5703125" style="88" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="65" width="2.5703125" customWidth="1"/>
+    <col min="70" max="71" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="40"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="40"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="C3" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="81"/>
+      <c r="F3" s="86">
+        <v>44319</v>
+      </c>
+      <c r="G3" s="86"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="84" t="s">
+      <c r="B4" s="87"/>
+      <c r="D4" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="83">
+      <c r="J4" s="83">
+        <f>J5</f>
         <v>44319</v>
       </c>
-      <c r="F3" s="83"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="83">
+        <f>Q5</f>
+        <v>44326</v>
+      </c>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="83">
+        <f>X5</f>
+        <v>44333</v>
+      </c>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="83">
+        <f>AE5</f>
+        <v>44340</v>
+      </c>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="83">
+        <f>AL5</f>
+        <v>44347</v>
+      </c>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="84"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="85"/>
+      <c r="AS4" s="83">
+        <f>AS5</f>
+        <v>44354</v>
+      </c>
+      <c r="AT4" s="84"/>
+      <c r="AU4" s="84"/>
+      <c r="AV4" s="84"/>
+      <c r="AW4" s="84"/>
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="85"/>
+      <c r="AZ4" s="83">
+        <f>AZ5</f>
+        <v>44361</v>
+      </c>
+      <c r="BA4" s="84"/>
+      <c r="BB4" s="84"/>
+      <c r="BC4" s="84"/>
+      <c r="BD4" s="84"/>
+      <c r="BE4" s="84"/>
+      <c r="BF4" s="85"/>
+      <c r="BG4" s="83">
+        <f>BG5</f>
+        <v>44368</v>
+      </c>
+      <c r="BH4" s="84"/>
+      <c r="BI4" s="84"/>
+      <c r="BJ4" s="84"/>
+      <c r="BK4" s="84"/>
+      <c r="BL4" s="84"/>
+      <c r="BM4" s="85"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="80">
-        <f>I5</f>
-        <v>44319</v>
-      </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="80">
-        <f>P5</f>
-        <v>44326</v>
-      </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="80">
-        <f>W5</f>
-        <v>44333</v>
-      </c>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="80">
-        <f>AD5</f>
-        <v>44340</v>
-      </c>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="80">
-        <f>AK5</f>
-        <v>44347</v>
-      </c>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="80">
-        <f>AR5</f>
-        <v>44354</v>
-      </c>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="81"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="80">
-        <f>AY5</f>
-        <v>44361</v>
-      </c>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="81"/>
-      <c r="BD4" s="81"/>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="80">
-        <f>BF5</f>
-        <v>44368</v>
-      </c>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="81"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="81"/>
-      <c r="BL4" s="82"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="I5" s="11">
+      <c r="B5" s="87"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="J5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44319</v>
       </c>
-      <c r="J5" s="10">
-        <f>I5+1</f>
+      <c r="K5" s="10">
+        <f>J5+1</f>
         <v>44320</v>
       </c>
-      <c r="K5" s="10">
-        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+      <c r="L5" s="10">
+        <f t="shared" ref="L5:AY5" si="0">K5+1</f>
         <v>44321</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <f t="shared" si="0"/>
         <v>44322</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <f t="shared" si="0"/>
         <v>44323</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <f t="shared" si="0"/>
         <v>44324</v>
       </c>
-      <c r="O5" s="12">
+      <c r="P5" s="12">
         <f t="shared" si="0"/>
         <v>44325</v>
       </c>
-      <c r="P5" s="11">
-        <f>O5+1</f>
+      <c r="Q5" s="11">
+        <f>P5+1</f>
         <v>44326</v>
       </c>
-      <c r="Q5" s="10">
-        <f>P5+1</f>
+      <c r="R5" s="10">
+        <f>Q5+1</f>
         <v>44327</v>
       </c>
-      <c r="R5" s="10">
+      <c r="S5" s="10">
         <f t="shared" si="0"/>
         <v>44328</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10">
         <f t="shared" si="0"/>
         <v>44329</v>
       </c>
-      <c r="T5" s="10">
+      <c r="U5" s="10">
         <f t="shared" si="0"/>
         <v>44330</v>
       </c>
-      <c r="U5" s="10">
+      <c r="V5" s="10">
         <f t="shared" si="0"/>
         <v>44331</v>
       </c>
-      <c r="V5" s="12">
+      <c r="W5" s="12">
         <f t="shared" si="0"/>
         <v>44332</v>
       </c>
-      <c r="W5" s="11">
-        <f>V5+1</f>
+      <c r="X5" s="11">
+        <f>W5+1</f>
         <v>44333</v>
       </c>
-      <c r="X5" s="10">
-        <f>W5+1</f>
+      <c r="Y5" s="10">
+        <f>X5+1</f>
         <v>44334</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Z5" s="10">
         <f t="shared" si="0"/>
         <v>44335</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="AA5" s="10">
         <f t="shared" si="0"/>
         <v>44336</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AB5" s="10">
         <f t="shared" si="0"/>
         <v>44337</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AC5" s="10">
         <f t="shared" si="0"/>
         <v>44338</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AD5" s="12">
         <f t="shared" si="0"/>
         <v>44339</v>
       </c>
-      <c r="AD5" s="11">
-        <f>AC5+1</f>
+      <c r="AE5" s="11">
+        <f>AD5+1</f>
         <v>44340</v>
       </c>
-      <c r="AE5" s="10">
-        <f>AD5+1</f>
+      <c r="AF5" s="10">
+        <f>AE5+1</f>
         <v>44341</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AG5" s="10">
         <f t="shared" si="0"/>
         <v>44342</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AH5" s="10">
         <f t="shared" si="0"/>
         <v>44343</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AI5" s="10">
         <f t="shared" si="0"/>
         <v>44344</v>
       </c>
-      <c r="AI5" s="10">
+      <c r="AJ5" s="10">
         <f t="shared" si="0"/>
         <v>44345</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AK5" s="12">
         <f t="shared" si="0"/>
         <v>44346</v>
       </c>
-      <c r="AK5" s="11">
-        <f>AJ5+1</f>
+      <c r="AL5" s="11">
+        <f>AK5+1</f>
         <v>44347</v>
       </c>
-      <c r="AL5" s="10">
-        <f>AK5+1</f>
+      <c r="AM5" s="10">
+        <f>AL5+1</f>
         <v>44348</v>
       </c>
-      <c r="AM5" s="10">
+      <c r="AN5" s="10">
         <f t="shared" si="0"/>
         <v>44349</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AO5" s="10">
         <f t="shared" si="0"/>
         <v>44350</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AP5" s="10">
         <f t="shared" si="0"/>
         <v>44351</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AQ5" s="10">
         <f t="shared" si="0"/>
         <v>44352</v>
       </c>
-      <c r="AQ5" s="12">
+      <c r="AR5" s="12">
         <f t="shared" si="0"/>
         <v>44353</v>
       </c>
-      <c r="AR5" s="11">
-        <f>AQ5+1</f>
+      <c r="AS5" s="11">
+        <f>AR5+1</f>
         <v>44354</v>
       </c>
-      <c r="AS5" s="10">
-        <f>AR5+1</f>
+      <c r="AT5" s="10">
+        <f>AS5+1</f>
         <v>44355</v>
       </c>
-      <c r="AT5" s="10">
+      <c r="AU5" s="10">
         <f t="shared" si="0"/>
         <v>44356</v>
       </c>
-      <c r="AU5" s="10">
+      <c r="AV5" s="10">
         <f t="shared" si="0"/>
         <v>44357</v>
       </c>
-      <c r="AV5" s="10">
+      <c r="AW5" s="10">
         <f t="shared" si="0"/>
         <v>44358</v>
       </c>
-      <c r="AW5" s="10">
+      <c r="AX5" s="10">
         <f t="shared" si="0"/>
         <v>44359</v>
       </c>
-      <c r="AX5" s="12">
+      <c r="AY5" s="12">
         <f t="shared" si="0"/>
         <v>44360</v>
       </c>
-      <c r="AY5" s="11">
-        <f>AX5+1</f>
+      <c r="AZ5" s="11">
+        <f>AY5+1</f>
         <v>44361</v>
       </c>
-      <c r="AZ5" s="10">
-        <f>AY5+1</f>
+      <c r="BA5" s="10">
+        <f>AZ5+1</f>
         <v>44362</v>
       </c>
-      <c r="BA5" s="10">
-        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
+      <c r="BB5" s="10">
+        <f t="shared" ref="BB5:BF5" si="1">BA5+1</f>
         <v>44363</v>
       </c>
-      <c r="BB5" s="10">
+      <c r="BC5" s="10">
         <f t="shared" si="1"/>
         <v>44364</v>
       </c>
-      <c r="BC5" s="10">
+      <c r="BD5" s="10">
         <f t="shared" si="1"/>
         <v>44365</v>
       </c>
-      <c r="BD5" s="10">
+      <c r="BE5" s="10">
         <f t="shared" si="1"/>
         <v>44366</v>
       </c>
-      <c r="BE5" s="12">
+      <c r="BF5" s="12">
         <f t="shared" si="1"/>
         <v>44367</v>
       </c>
-      <c r="BF5" s="11">
-        <f>BE5+1</f>
+      <c r="BG5" s="11">
+        <f>BF5+1</f>
         <v>44368</v>
       </c>
-      <c r="BG5" s="10">
-        <f>BF5+1</f>
+      <c r="BH5" s="10">
+        <f>BG5+1</f>
         <v>44369</v>
       </c>
-      <c r="BH5" s="10">
-        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+      <c r="BI5" s="10">
+        <f t="shared" ref="BI5:BM5" si="2">BH5+1</f>
         <v>44370</v>
       </c>
-      <c r="BI5" s="10">
+      <c r="BJ5" s="10">
         <f t="shared" si="2"/>
         <v>44371</v>
       </c>
-      <c r="BJ5" s="10">
+      <c r="BK5" s="10">
         <f t="shared" si="2"/>
         <v>44372</v>
       </c>
-      <c r="BK5" s="10">
+      <c r="BL5" s="10">
         <f t="shared" si="2"/>
         <v>44373</v>
       </c>
-      <c r="BL5" s="12">
+      <c r="BM5" s="12">
         <f t="shared" si="2"/>
         <v>44374</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+      <c r="J6" s="13" t="str">
+        <f t="shared" ref="J6" si="3">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+      <c r="K6" s="13" t="str">
+        <f t="shared" ref="K6:AS6" si="4">LEFT(TEXT(K5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="K6" s="13" t="str">
+      <c r="L6" s="13" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="L6" s="13" t="str">
+      <c r="M6" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="M6" s="13" t="str">
+      <c r="N6" s="13" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
-      </c>
-      <c r="N6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S</v>
       </c>
       <c r="O6" s="13" t="str">
         <f t="shared" si="4"/>
@@ -1956,27 +2037,27 @@
       </c>
       <c r="P6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="Q6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="R6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="S6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="T6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="U6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="V6" s="13" t="str">
         <f t="shared" si="4"/>
@@ -1984,27 +2065,27 @@
       </c>
       <c r="W6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="X6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="Y6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="Z6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AA6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AB6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AC6" s="13" t="str">
         <f t="shared" si="4"/>
@@ -2012,27 +2093,27 @@
       </c>
       <c r="AD6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AE6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AF6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AG6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AH6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AI6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AJ6" s="13" t="str">
         <f t="shared" si="4"/>
@@ -2040,27 +2121,27 @@
       </c>
       <c r="AK6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AL6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AM6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AN6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AO6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AP6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AQ6" s="13" t="str">
         <f t="shared" si="4"/>
@@ -2068,27 +2149,27 @@
       </c>
       <c r="AR6" s="13" t="str">
         <f t="shared" si="4"/>
+        <v>S</v>
+      </c>
+      <c r="AS6" s="13" t="str">
+        <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AS6" s="13" t="str">
-        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+      <c r="AT6" s="13" t="str">
+        <f t="shared" ref="AT6:BM6" si="5">LEFT(TEXT(AT5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AT6" s="13" t="str">
+      <c r="AU6" s="13" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="AU6" s="13" t="str">
+      <c r="AV6" s="13" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AV6" s="13" t="str">
+      <c r="AW6" s="13" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
-      </c>
-      <c r="AW6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>S</v>
       </c>
       <c r="AX6" s="13" t="str">
         <f t="shared" si="5"/>
@@ -2096,27 +2177,27 @@
       </c>
       <c r="AY6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AZ6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BA6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BB6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BC6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BD6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BE6" s="13" t="str">
         <f t="shared" si="5"/>
@@ -2124,44 +2205,47 @@
       </c>
       <c r="BF6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BG6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BH6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BI6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BJ6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BK6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BL6" s="13" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-    </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM6" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="E7"/>
-      <c r="H7" t="str">
+        <v>28</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="F7"/>
+      <c r="I7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I7" s="37"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
@@ -2217,24 +2301,25 @@
       <c r="BJ7" s="37"/>
       <c r="BK7" s="37"/>
       <c r="BL7" s="37"/>
-    </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM7" s="37"/>
+    </row>
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H42" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17" t="str">
+        <f t="shared" ref="I8:I41" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I8" s="37"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
@@ -2290,34 +2375,37 @@
       <c r="BJ8" s="37"/>
       <c r="BK8" s="37"/>
       <c r="BL8" s="37"/>
-    </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM8" s="37"/>
+    </row>
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="22">
+        <v>34</v>
+      </c>
+      <c r="B9" s="89">
+        <v>1</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="22">
         <v>0.7</v>
       </c>
-      <c r="E9" s="59">
+      <c r="F9" s="59">
         <f>Project_Start</f>
         <v>44319</v>
       </c>
-      <c r="F9" s="59">
-        <f>E9</f>
+      <c r="G9" s="59">
+        <f>F9</f>
         <v>44319</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
@@ -2373,34 +2461,37 @@
       <c r="BJ9" s="37"/>
       <c r="BK9" s="37"/>
       <c r="BL9" s="37"/>
-    </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM9" s="37"/>
+    </row>
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="22">
+        <v>35</v>
+      </c>
+      <c r="B10" s="89">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="22">
         <v>1</v>
       </c>
-      <c r="E10" s="59">
-        <f>F9</f>
+      <c r="F10" s="59">
+        <f>G9</f>
         <v>44319</v>
       </c>
-      <c r="F10" s="59">
-        <f>E10+7</f>
+      <c r="G10" s="59">
+        <f>F10+7</f>
         <v>44326</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
@@ -2412,9 +2503,9 @@
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
-      <c r="U10" s="38"/>
+      <c r="U10" s="37"/>
       <c r="V10" s="38"/>
-      <c r="W10" s="37"/>
+      <c r="W10" s="38"/>
       <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
@@ -2456,30 +2547,33 @@
       <c r="BJ10" s="37"/>
       <c r="BK10" s="37"/>
       <c r="BL10" s="37"/>
-    </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM10" s="37"/>
+    </row>
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51"/>
-      <c r="B11" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="B11" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="22">
         <v>1</v>
       </c>
-      <c r="E11" s="59">
+      <c r="F11" s="59">
         <v>44320</v>
       </c>
-      <c r="F11" s="59">
+      <c r="G11" s="59">
         <v>44322</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
@@ -2535,32 +2629,35 @@
       <c r="BJ11" s="37"/>
       <c r="BK11" s="37"/>
       <c r="BL11" s="37"/>
-    </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM11" s="37"/>
+    </row>
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="51"/>
-      <c r="B12" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="22">
+      <c r="B12" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="22">
         <v>0.8</v>
       </c>
-      <c r="E12" s="59">
-        <f>F11</f>
+      <c r="F12" s="59">
+        <f>G11</f>
         <v>44322</v>
       </c>
-      <c r="F12" s="59">
-        <f>E12+3</f>
+      <c r="G12" s="59">
+        <f>F12+3</f>
         <v>44325</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I12" s="37"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
@@ -2576,8 +2673,8 @@
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
       <c r="X12" s="37"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="38"/>
       <c r="AA12" s="37"/>
       <c r="AB12" s="37"/>
       <c r="AC12" s="37"/>
@@ -2616,29 +2713,32 @@
       <c r="BJ12" s="37"/>
       <c r="BK12" s="37"/>
       <c r="BL12" s="37"/>
-    </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM12" s="37"/>
+    </row>
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="51"/>
-      <c r="B13" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="22">
+      <c r="B13" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="22">
         <v>0.9</v>
       </c>
-      <c r="E13" s="59">
-        <f t="shared" ref="E13:E20" si="7">F12</f>
+      <c r="F13" s="59">
+        <f t="shared" ref="F13:F20" si="7">G12</f>
         <v>44325</v>
       </c>
-      <c r="F13" s="59">
-        <f>E13+2</f>
+      <c r="G13" s="59">
+        <f>F13+2</f>
         <v>44327</v>
       </c>
-      <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="37"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
@@ -2654,8 +2754,8 @@
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
       <c r="X13" s="37"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="38"/>
       <c r="AA13" s="37"/>
       <c r="AB13" s="37"/>
       <c r="AC13" s="37"/>
@@ -2694,29 +2794,32 @@
       <c r="BJ13" s="37"/>
       <c r="BK13" s="37"/>
       <c r="BL13" s="37"/>
-    </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM13" s="37"/>
+    </row>
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51"/>
-      <c r="B14" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="B14" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="22">
         <v>1</v>
       </c>
-      <c r="E14" s="59">
+      <c r="F14" s="59">
         <f t="shared" si="7"/>
         <v>44327</v>
       </c>
-      <c r="F14" s="59">
-        <f>E14+2</f>
+      <c r="G14" s="59">
+        <f>F14+2</f>
         <v>44329</v>
       </c>
-      <c r="G14" s="17"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="37"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
@@ -2732,8 +2835,8 @@
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
       <c r="X14" s="37"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="38"/>
       <c r="AA14" s="37"/>
       <c r="AB14" s="37"/>
       <c r="AC14" s="37"/>
@@ -2772,29 +2875,32 @@
       <c r="BJ14" s="37"/>
       <c r="BK14" s="37"/>
       <c r="BL14" s="37"/>
-    </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM14" s="37"/>
+    </row>
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
-      <c r="B15" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="22">
+      <c r="B15" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="22">
         <v>0.9</v>
       </c>
-      <c r="E15" s="59">
+      <c r="F15" s="59">
         <f t="shared" si="7"/>
         <v>44329</v>
       </c>
-      <c r="F15" s="59">
-        <f t="shared" ref="F15" si="8">E15+3</f>
+      <c r="G15" s="59">
+        <f t="shared" ref="G15" si="8">F15+3</f>
         <v>44332</v>
       </c>
-      <c r="G15" s="17"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="37"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
@@ -2810,8 +2916,8 @@
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
       <c r="X15" s="37"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="38"/>
       <c r="AA15" s="37"/>
       <c r="AB15" s="37"/>
       <c r="AC15" s="37"/>
@@ -2850,29 +2956,32 @@
       <c r="BJ15" s="37"/>
       <c r="BK15" s="37"/>
       <c r="BL15" s="37"/>
-    </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM15" s="37"/>
+    </row>
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="51"/>
-      <c r="B16" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="22">
+      <c r="B16" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="22">
         <v>0.75</v>
       </c>
-      <c r="E16" s="59">
+      <c r="F16" s="59">
         <f t="shared" si="7"/>
         <v>44332</v>
       </c>
-      <c r="F16" s="59">
-        <f>E16+2</f>
+      <c r="G16" s="59">
+        <f>F16+2</f>
         <v>44334</v>
       </c>
-      <c r="G16" s="17"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="37"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
@@ -2888,8 +2997,8 @@
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
       <c r="X16" s="37"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="38"/>
       <c r="AA16" s="37"/>
       <c r="AB16" s="37"/>
       <c r="AC16" s="37"/>
@@ -2928,29 +3037,32 @@
       <c r="BJ16" s="37"/>
       <c r="BK16" s="37"/>
       <c r="BL16" s="37"/>
-    </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM16" s="37"/>
+    </row>
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>
-      <c r="B17" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="22">
+      <c r="B17" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="22">
         <v>0.9</v>
       </c>
-      <c r="E17" s="59">
+      <c r="F17" s="59">
         <f t="shared" si="7"/>
         <v>44334</v>
       </c>
-      <c r="F17" s="59">
-        <f>E17+2</f>
+      <c r="G17" s="59">
+        <f>F17+2</f>
         <v>44336</v>
       </c>
-      <c r="G17" s="17"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="37"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
@@ -2966,8 +3078,8 @@
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
       <c r="X17" s="37"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="38"/>
       <c r="AA17" s="37"/>
       <c r="AB17" s="37"/>
       <c r="AC17" s="37"/>
@@ -3006,29 +3118,32 @@
       <c r="BJ17" s="37"/>
       <c r="BK17" s="37"/>
       <c r="BL17" s="37"/>
-    </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM17" s="37"/>
+    </row>
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51"/>
-      <c r="B18" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="B18" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="22">
         <v>1</v>
       </c>
-      <c r="E18" s="59">
-        <f>F17</f>
+      <c r="F18" s="59">
+        <f>G17</f>
         <v>44336</v>
       </c>
-      <c r="F18" s="59">
-        <f>E18+2</f>
+      <c r="G18" s="59">
+        <f>F18+2</f>
         <v>44338</v>
       </c>
-      <c r="G18" s="17"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="37"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
@@ -3044,8 +3159,8 @@
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
       <c r="X18" s="37"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="38"/>
       <c r="AA18" s="37"/>
       <c r="AB18" s="37"/>
       <c r="AC18" s="37"/>
@@ -3084,29 +3199,32 @@
       <c r="BJ18" s="37"/>
       <c r="BK18" s="37"/>
       <c r="BL18" s="37"/>
-    </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM18" s="37"/>
+    </row>
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="51"/>
-      <c r="B19" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="22">
+      <c r="B19" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="22">
         <v>0.5</v>
       </c>
-      <c r="E19" s="59">
+      <c r="F19" s="59">
         <f t="shared" si="7"/>
         <v>44338</v>
       </c>
-      <c r="F19" s="59">
-        <f>E19+1</f>
+      <c r="G19" s="59">
+        <f>F19+1</f>
         <v>44339</v>
       </c>
-      <c r="G19" s="17"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="37"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
@@ -3122,8 +3240,8 @@
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
       <c r="X19" s="37"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="38"/>
       <c r="AA19" s="37"/>
       <c r="AB19" s="37"/>
       <c r="AC19" s="37"/>
@@ -3162,32 +3280,35 @@
       <c r="BJ19" s="37"/>
       <c r="BK19" s="37"/>
       <c r="BL19" s="37"/>
-    </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM19" s="37"/>
+    </row>
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="51"/>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="22">
+      <c r="E20" s="22">
         <v>0.9</v>
       </c>
-      <c r="E20" s="59">
+      <c r="F20" s="59">
         <f t="shared" si="7"/>
         <v>44339</v>
       </c>
-      <c r="F20" s="59">
-        <f>E20+2</f>
+      <c r="G20" s="59">
+        <f>F20+2</f>
         <v>44341</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I20" s="37"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
@@ -3243,24 +3364,25 @@
       <c r="BJ20" s="37"/>
       <c r="BK20" s="37"/>
       <c r="BL20" s="37"/>
-    </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM20" s="37"/>
+    </row>
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17" t="str">
+        <v>36</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I21" s="37"/>
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
@@ -3316,28 +3438,31 @@
       <c r="BJ21" s="37"/>
       <c r="BK21" s="37"/>
       <c r="BL21" s="37"/>
-    </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM21" s="37"/>
+    </row>
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="52"/>
-      <c r="B22" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="78">
+      <c r="B22" s="90">
+        <v>2</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="78">
         <v>1</v>
       </c>
-      <c r="E22" s="79">
+      <c r="F22" s="79">
         <v>44474</v>
       </c>
-      <c r="F22" s="79">
+      <c r="G22" s="79">
         <v>44328</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17">
+      <c r="H22" s="17"/>
+      <c r="I22" s="17">
         <f t="shared" si="6"/>
         <v>-145</v>
       </c>
-      <c r="I22" s="37"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
@@ -3393,30 +3518,33 @@
       <c r="BJ22" s="37"/>
       <c r="BK22" s="37"/>
       <c r="BL22" s="37"/>
-    </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM22" s="37"/>
+    </row>
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
-      <c r="B23" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="78">
+      <c r="B23" s="90">
+        <v>2.1</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="78">
         <v>1</v>
       </c>
-      <c r="E23" s="79">
-        <f>F22</f>
+      <c r="F23" s="79">
+        <f>G22</f>
         <v>44328</v>
       </c>
-      <c r="F23" s="79">
-        <f>E23+2</f>
+      <c r="G23" s="79">
+        <f>F23+2</f>
         <v>44330</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17">
+      <c r="H23" s="17"/>
+      <c r="I23" s="17">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I23" s="37"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
@@ -3428,9 +3556,9 @@
       <c r="R23" s="37"/>
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
-      <c r="U23" s="38"/>
+      <c r="U23" s="37"/>
       <c r="V23" s="38"/>
-      <c r="W23" s="37"/>
+      <c r="W23" s="38"/>
       <c r="X23" s="37"/>
       <c r="Y23" s="37"/>
       <c r="Z23" s="37"/>
@@ -3472,29 +3600,32 @@
       <c r="BJ23" s="37"/>
       <c r="BK23" s="37"/>
       <c r="BL23" s="37"/>
-    </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM23" s="37"/>
+    </row>
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
-      <c r="B24" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="78">
+      <c r="B24" s="90">
+        <v>3</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="76"/>
+      <c r="E24" s="78">
         <v>0.8</v>
       </c>
-      <c r="E24" s="79">
-        <f>F23</f>
+      <c r="F24" s="79">
+        <f>G23</f>
         <v>44330</v>
       </c>
-      <c r="F24" s="79">
+      <c r="G24" s="79">
         <v>44354</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17">
+      <c r="H24" s="17"/>
+      <c r="I24" s="17">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="I24" s="37"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
@@ -3550,28 +3681,31 @@
       <c r="BJ24" s="37"/>
       <c r="BK24" s="37"/>
       <c r="BL24" s="37"/>
-    </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM24" s="37"/>
+    </row>
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
-      <c r="B25" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="78">
+      <c r="B25" s="90">
+        <v>3.1</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="78">
         <v>1</v>
       </c>
-      <c r="E25" s="79">
+      <c r="F25" s="79">
         <v>44330</v>
       </c>
-      <c r="F25" s="79">
+      <c r="G25" s="79">
         <v>44337</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17">
+      <c r="H25" s="17"/>
+      <c r="I25" s="17">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I25" s="37"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
@@ -3587,8 +3721,8 @@
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
       <c r="X25" s="37"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="38"/>
       <c r="AA25" s="37"/>
       <c r="AB25" s="37"/>
       <c r="AC25" s="37"/>
@@ -3627,25 +3761,28 @@
       <c r="BJ25" s="37"/>
       <c r="BK25" s="37"/>
       <c r="BL25" s="37"/>
-    </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM25" s="37"/>
+    </row>
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="51"/>
-      <c r="B26" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="78">
+      <c r="B26" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="76"/>
+      <c r="E26" s="78">
         <v>1</v>
-      </c>
-      <c r="E26" s="79">
-        <v>44330</v>
       </c>
       <c r="F26" s="79">
         <v>44330</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="79">
+        <v>44330</v>
+      </c>
       <c r="H26" s="17"/>
-      <c r="I26" s="37"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
@@ -3661,8 +3798,8 @@
       <c r="V26" s="37"/>
       <c r="W26" s="37"/>
       <c r="X26" s="37"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="38"/>
       <c r="AA26" s="37"/>
       <c r="AB26" s="37"/>
       <c r="AC26" s="37"/>
@@ -3701,25 +3838,28 @@
       <c r="BJ26" s="37"/>
       <c r="BK26" s="37"/>
       <c r="BL26" s="37"/>
-    </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM26" s="37"/>
+    </row>
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
-      <c r="B27" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="78">
+      <c r="B27" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="76"/>
+      <c r="E27" s="78">
         <v>1</v>
       </c>
-      <c r="E27" s="79">
+      <c r="F27" s="79">
         <v>44331</v>
       </c>
-      <c r="F27" s="79">
+      <c r="G27" s="79">
         <v>44335</v>
       </c>
-      <c r="G27" s="17"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="37"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
@@ -3735,8 +3875,8 @@
       <c r="V27" s="37"/>
       <c r="W27" s="37"/>
       <c r="X27" s="37"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="38"/>
       <c r="AA27" s="37"/>
       <c r="AB27" s="37"/>
       <c r="AC27" s="37"/>
@@ -3775,26 +3915,29 @@
       <c r="BJ27" s="37"/>
       <c r="BK27" s="37"/>
       <c r="BL27" s="37"/>
-    </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM27" s="37"/>
+    </row>
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="51"/>
-      <c r="B28" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="78">
+      <c r="B28" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="76"/>
+      <c r="E28" s="78">
         <v>1</v>
       </c>
-      <c r="E28" s="79">
+      <c r="F28" s="79">
         <v>44336</v>
       </c>
-      <c r="F28" s="79">
-        <f>E28+2</f>
+      <c r="G28" s="79">
+        <f>F28+2</f>
         <v>44338</v>
       </c>
-      <c r="G28" s="17"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="37"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
@@ -3810,8 +3953,8 @@
       <c r="V28" s="37"/>
       <c r="W28" s="37"/>
       <c r="X28" s="37"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="38"/>
       <c r="AA28" s="37"/>
       <c r="AB28" s="37"/>
       <c r="AC28" s="37"/>
@@ -3850,27 +3993,30 @@
       <c r="BJ28" s="37"/>
       <c r="BK28" s="37"/>
       <c r="BL28" s="37"/>
-    </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM28" s="37"/>
+    </row>
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="51"/>
-      <c r="B29" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="78">
+      <c r="B29" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="76"/>
+      <c r="E29" s="78">
         <v>1</v>
       </c>
-      <c r="E29" s="79">
-        <f>F28+1</f>
+      <c r="F29" s="79">
+        <f>G28+1</f>
         <v>44339</v>
       </c>
-      <c r="F29" s="79">
-        <f>E29+1</f>
+      <c r="G29" s="79">
+        <f>F29+1</f>
         <v>44340</v>
       </c>
-      <c r="G29" s="17"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="37"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
@@ -3886,8 +4032,8 @@
       <c r="V29" s="37"/>
       <c r="W29" s="37"/>
       <c r="X29" s="37"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="38"/>
       <c r="AA29" s="37"/>
       <c r="AB29" s="37"/>
       <c r="AC29" s="37"/>
@@ -3926,27 +4072,30 @@
       <c r="BJ29" s="37"/>
       <c r="BK29" s="37"/>
       <c r="BL29" s="37"/>
-    </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM29" s="37"/>
+    </row>
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="51"/>
-      <c r="B30" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="78">
-        <v>0</v>
-      </c>
-      <c r="E30" s="79">
-        <f>F29+1</f>
+      <c r="B30" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="76"/>
+      <c r="E30" s="78">
+        <v>1</v>
+      </c>
+      <c r="F30" s="79">
+        <f>G29+1</f>
         <v>44341</v>
       </c>
-      <c r="F30" s="79">
-        <f>E30+2</f>
+      <c r="G30" s="79">
+        <f>F30+2</f>
         <v>44343</v>
       </c>
-      <c r="G30" s="17"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="37"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
@@ -3962,8 +4111,8 @@
       <c r="V30" s="37"/>
       <c r="W30" s="37"/>
       <c r="X30" s="37"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="38"/>
       <c r="AA30" s="37"/>
       <c r="AB30" s="37"/>
       <c r="AC30" s="37"/>
@@ -4002,27 +4151,30 @@
       <c r="BJ30" s="37"/>
       <c r="BK30" s="37"/>
       <c r="BL30" s="37"/>
-    </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM30" s="37"/>
+    </row>
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="51"/>
-      <c r="B31" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="78">
-        <v>0</v>
-      </c>
-      <c r="E31" s="79">
-        <f t="shared" ref="E31:E32" si="9">F30+1</f>
+      <c r="B31" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="76"/>
+      <c r="E31" s="78">
+        <v>1</v>
+      </c>
+      <c r="F31" s="79">
+        <f t="shared" ref="F31:F32" si="9">G30+1</f>
         <v>44344</v>
       </c>
-      <c r="F31" s="79">
-        <f>E31+2</f>
+      <c r="G31" s="79">
+        <f>F31+2</f>
         <v>44346</v>
       </c>
-      <c r="G31" s="17"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="37"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
@@ -4038,8 +4190,8 @@
       <c r="V31" s="37"/>
       <c r="W31" s="37"/>
       <c r="X31" s="37"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="38"/>
       <c r="AA31" s="37"/>
       <c r="AB31" s="37"/>
       <c r="AC31" s="37"/>
@@ -4078,26 +4230,29 @@
       <c r="BJ31" s="37"/>
       <c r="BK31" s="37"/>
       <c r="BL31" s="37"/>
-    </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM31" s="37"/>
+    </row>
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="51"/>
-      <c r="B32" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="78">
-        <v>0</v>
-      </c>
-      <c r="E32" s="79">
+      <c r="B32" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="78">
+        <v>1</v>
+      </c>
+      <c r="F32" s="79">
         <f t="shared" si="9"/>
         <v>44347</v>
       </c>
-      <c r="F32" s="79">
+      <c r="G32" s="79">
         <v>44349</v>
       </c>
-      <c r="G32" s="17"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="37"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
@@ -4113,8 +4268,8 @@
       <c r="V32" s="37"/>
       <c r="W32" s="37"/>
       <c r="X32" s="37"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="38"/>
       <c r="AA32" s="37"/>
       <c r="AB32" s="37"/>
       <c r="AC32" s="37"/>
@@ -4153,26 +4308,29 @@
       <c r="BJ32" s="37"/>
       <c r="BK32" s="37"/>
       <c r="BL32" s="37"/>
-    </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM32" s="37"/>
+    </row>
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="51"/>
-      <c r="B33" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="78">
-        <v>0</v>
-      </c>
-      <c r="E33" s="79">
-        <f>F32+1</f>
+      <c r="B33" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="78">
+        <v>1</v>
+      </c>
+      <c r="F33" s="79">
+        <f>G32+1</f>
         <v>44350</v>
       </c>
-      <c r="F33" s="79">
+      <c r="G33" s="79">
         <v>44354</v>
       </c>
-      <c r="G33" s="17"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="37"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
@@ -4188,8 +4346,8 @@
       <c r="V33" s="37"/>
       <c r="W33" s="37"/>
       <c r="X33" s="37"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="38"/>
       <c r="AA33" s="37"/>
       <c r="AB33" s="37"/>
       <c r="AC33" s="37"/>
@@ -4228,28 +4386,25 @@
       <c r="BJ33" s="37"/>
       <c r="BK33" s="37"/>
       <c r="BL33" s="37"/>
-    </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="78">
-        <v>0.7</v>
-      </c>
-      <c r="E34" s="79">
-        <v>44333</v>
-      </c>
-      <c r="F34" s="79">
-        <v>44355</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17">
+      <c r="BM33" s="37"/>
+    </row>
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="64"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="I34" s="37"/>
+        <v/>
+      </c>
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
@@ -4305,24 +4460,32 @@
       <c r="BJ34" s="37"/>
       <c r="BK34" s="37"/>
       <c r="BL34" s="37"/>
-    </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17" t="str">
+      <c r="BM34" s="37"/>
+    </row>
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="51"/>
+      <c r="B35" s="92">
+        <v>4</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="65"/>
+      <c r="E35" s="78">
+        <v>0</v>
+      </c>
+      <c r="F35" s="60">
+        <v>44355</v>
+      </c>
+      <c r="G35" s="60">
+        <f>F35+2</f>
+        <v>44357</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I35" s="37"/>
+        <v>3</v>
+      </c>
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
@@ -4378,29 +4541,33 @@
       <c r="BJ35" s="37"/>
       <c r="BK35" s="37"/>
       <c r="BL35" s="37"/>
-    </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM35" s="37"/>
+    </row>
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="51"/>
-      <c r="B36" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="78">
+      <c r="B36" s="92">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="65"/>
+      <c r="E36" s="78">
         <v>0</v>
       </c>
-      <c r="E36" s="60">
-        <v>44355</v>
-      </c>
       <c r="F36" s="60">
-        <f>E36+2</f>
+        <f>G35</f>
         <v>44357</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17">
+      <c r="G36" s="60">
+        <f>F36+1</f>
+        <v>44358</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I36" s="37"/>
+        <v>2</v>
+      </c>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
@@ -4456,30 +4623,33 @@
       <c r="BJ36" s="37"/>
       <c r="BK36" s="37"/>
       <c r="BL36" s="37"/>
-    </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM36" s="37"/>
+    </row>
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="51"/>
-      <c r="B37" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="78">
+      <c r="B37" s="92">
+        <v>5</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="65"/>
+      <c r="E37" s="78">
         <v>0</v>
       </c>
-      <c r="E37" s="60">
-        <f>F36</f>
-        <v>44357</v>
-      </c>
       <c r="F37" s="60">
-        <f>E37+1</f>
+        <f>G36</f>
         <v>44358</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17">
+      <c r="G37" s="60">
+        <f>F37+4</f>
+        <v>44362</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="I37" s="37"/>
+        <v>5</v>
+      </c>
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
@@ -4535,30 +4705,30 @@
       <c r="BJ37" s="37"/>
       <c r="BK37" s="37"/>
       <c r="BL37" s="37"/>
-    </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM37" s="37"/>
+    </row>
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="51"/>
-      <c r="B38" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="78">
+      <c r="B38" s="92">
+        <v>6</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="65"/>
+      <c r="E38" s="78">
         <v>0</v>
       </c>
-      <c r="E38" s="60">
-        <f>F37</f>
-        <v>44358</v>
-      </c>
       <c r="F38" s="60">
-        <f>E38+4</f>
+        <f>G37</f>
         <v>44362</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="I38" s="37"/>
+      <c r="G38" s="60">
+        <f>F38+1</f>
+        <v>44363</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
       <c r="L38" s="37"/>
@@ -4614,27 +4784,30 @@
       <c r="BJ38" s="37"/>
       <c r="BK38" s="37"/>
       <c r="BL38" s="37"/>
-    </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM38" s="37"/>
+    </row>
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="51"/>
-      <c r="B39" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="78">
+      <c r="B39" s="92">
+        <v>7</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="65"/>
+      <c r="E39" s="78">
         <v>0</v>
       </c>
-      <c r="E39" s="60">
-        <f>F38</f>
-        <v>44362</v>
-      </c>
       <c r="F39" s="60">
-        <f>E39+1</f>
-        <v>44363</v>
-      </c>
-      <c r="G39" s="17"/>
+        <f t="shared" ref="F39" si="10">G38+1</f>
+        <v>44364</v>
+      </c>
+      <c r="G39" s="60">
+        <f>F39</f>
+        <v>44364</v>
+      </c>
       <c r="H39" s="17"/>
-      <c r="I39" s="37"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
@@ -4690,27 +4863,23 @@
       <c r="BJ39" s="37"/>
       <c r="BK39" s="37"/>
       <c r="BL39" s="37"/>
-    </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="51"/>
-      <c r="B40" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="78">
-        <v>0</v>
-      </c>
-      <c r="E40" s="60">
-        <f t="shared" ref="E40" si="10">F39+1</f>
-        <v>44364</v>
-      </c>
-      <c r="F40" s="60">
-        <f>E40</f>
-        <v>44364</v>
-      </c>
-      <c r="G40" s="17"/>
+      <c r="BM39" s="37"/>
+    </row>
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="88"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="37"/>
+      <c r="I40" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="J40" s="37"/>
       <c r="K40" s="37"/>
       <c r="L40" s="37"/>
@@ -4766,177 +4935,109 @@
       <c r="BJ40" s="37"/>
       <c r="BK40" s="37"/>
       <c r="BL40" s="37"/>
-    </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17" t="str">
+      <c r="BM40" s="37"/>
+    </row>
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="87"/>
+      <c r="C41" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="37"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="37"/>
-      <c r="AE41" s="37"/>
-      <c r="AF41" s="37"/>
-      <c r="AG41" s="37"/>
-      <c r="AH41" s="37"/>
-      <c r="AI41" s="37"/>
-      <c r="AJ41" s="37"/>
-      <c r="AK41" s="37"/>
-      <c r="AL41" s="37"/>
-      <c r="AM41" s="37"/>
-      <c r="AN41" s="37"/>
-      <c r="AO41" s="37"/>
-      <c r="AP41" s="37"/>
-      <c r="AQ41" s="37"/>
-      <c r="AR41" s="37"/>
-      <c r="AS41" s="37"/>
-      <c r="AT41" s="37"/>
-      <c r="AU41" s="37"/>
-      <c r="AV41" s="37"/>
-      <c r="AW41" s="37"/>
-      <c r="AX41" s="37"/>
-      <c r="AY41" s="37"/>
-      <c r="AZ41" s="37"/>
-      <c r="BA41" s="37"/>
-      <c r="BB41" s="37"/>
-      <c r="BC41" s="37"/>
-      <c r="BD41" s="37"/>
-      <c r="BE41" s="37"/>
-      <c r="BF41" s="37"/>
-      <c r="BG41" s="37"/>
-      <c r="BH41" s="37"/>
-      <c r="BI41" s="37"/>
-      <c r="BJ41" s="37"/>
-      <c r="BK41" s="37"/>
-      <c r="BL41" s="37"/>
-    </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="39"/>
-      <c r="AA42" s="39"/>
-      <c r="AB42" s="39"/>
-      <c r="AC42" s="39"/>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="39"/>
-      <c r="AF42" s="39"/>
-      <c r="AG42" s="39"/>
-      <c r="AH42" s="39"/>
-      <c r="AI42" s="39"/>
-      <c r="AJ42" s="39"/>
-      <c r="AK42" s="39"/>
-      <c r="AL42" s="39"/>
-      <c r="AM42" s="39"/>
-      <c r="AN42" s="39"/>
-      <c r="AO42" s="39"/>
-      <c r="AP42" s="39"/>
-      <c r="AQ42" s="39"/>
-      <c r="AR42" s="39"/>
-      <c r="AS42" s="39"/>
-      <c r="AT42" s="39"/>
-      <c r="AU42" s="39"/>
-      <c r="AV42" s="39"/>
-      <c r="AW42" s="39"/>
-      <c r="AX42" s="39"/>
-      <c r="AY42" s="39"/>
-      <c r="AZ42" s="39"/>
-      <c r="BA42" s="39"/>
-      <c r="BB42" s="39"/>
-      <c r="BC42" s="39"/>
-      <c r="BD42" s="39"/>
-      <c r="BE42" s="39"/>
-      <c r="BF42" s="39"/>
-      <c r="BG42" s="39"/>
-      <c r="BH42" s="39"/>
-      <c r="BI42" s="39"/>
-      <c r="BJ42" s="39"/>
-      <c r="BK42" s="39"/>
-      <c r="BL42" s="39"/>
-    </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="14"/>
-      <c r="F44" s="53"/>
-    </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="15"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39"/>
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="39"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39"/>
+      <c r="AP41" s="39"/>
+      <c r="AQ41" s="39"/>
+      <c r="AR41" s="39"/>
+      <c r="AS41" s="39"/>
+      <c r="AT41" s="39"/>
+      <c r="AU41" s="39"/>
+      <c r="AV41" s="39"/>
+      <c r="AW41" s="39"/>
+      <c r="AX41" s="39"/>
+      <c r="AY41" s="39"/>
+      <c r="AZ41" s="39"/>
+      <c r="BA41" s="39"/>
+      <c r="BB41" s="39"/>
+      <c r="BC41" s="39"/>
+      <c r="BD41" s="39"/>
+      <c r="BE41" s="39"/>
+      <c r="BF41" s="39"/>
+      <c r="BG41" s="39"/>
+      <c r="BH41" s="39"/>
+      <c r="BI41" s="39"/>
+      <c r="BJ41" s="39"/>
+      <c r="BK41" s="39"/>
+      <c r="BL41" s="39"/>
+      <c r="BM41" s="39"/>
+    </row>
+    <row r="42" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="14"/>
+      <c r="G43" s="53"/>
+    </row>
+    <row r="44" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AZ4:BF4"/>
+    <mergeCell ref="BG4:BM4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D42">
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="E7:E41">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4950,27 +5051,27 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL42">
+  <conditionalFormatting sqref="J5:BM41">
     <cfRule type="expression" dxfId="2" priority="33">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL42">
+  <conditionalFormatting sqref="J7:BM41">
     <cfRule type="expression" dxfId="1" priority="27">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+      <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+      <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -4994,7 +5095,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D42</xm:sqref>
+          <xm:sqref>E7:E41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5017,59 +5118,59 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2" s="47" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="48"/>
     </row>
     <row r="4" spans="1:2" s="44" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="41" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="44" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="41" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="44" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="41" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5079,17 +5180,17 @@
     </row>
     <row r="14" spans="1:2" s="44" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
